--- a/api/app_api/backlog/remove_user/udid_negative.xlsx
+++ b/api/app_api/backlog/remove_user/udid_negative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\api\app_api\backlog\remove_user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87535EFF-671D-44A2-9C82-51A2F0F63954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6CBC7E-8470-48E8-8735-E5BCD8473526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>SYM-API-SP-021</t>
-  </si>
-  <si>
-    <t>Test Scenario: Remove User (positive)</t>
   </si>
   <si>
     <t>1. open the postman
@@ -412,6 +409,9 @@
   <si>
     <t>post request should return an error response with status code 400</t>
   </si>
+  <si>
+    <t>Test Scenario: Remove User (negative)</t>
+  </si>
 </sst>
 </file>
 
@@ -701,11 +701,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -713,142 +709,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -930,7 +792,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -942,35 +808,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1019,6 +856,103 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1046,6 +980,39 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1054,6 +1021,39 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1616,13 +1616,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G7" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" totalsRowLabel="SYM-API-SP-004" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" totalsRowLabel="1. needs to have postman install_x000a_2. needs to have proper defination in the documentation" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" totalsRowLabel="Check removal of a user with an invalid UDID containing a single character" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" totalsRowLabel="1. open the postman_x000a_2. create or open the saved request_x000a_3. define request(method -POST - User Signup)_x000a_4. fill the other required field with valid credentials and goto udid field_x000a_5. send the request with invalid UDID containing a single character_x000a_6. review the response status code." dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" totalsRowLabel="post request should return an error response with status code 400" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" totalsRowLabel="N/A" dataDxfId="10" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="9" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" totalsRowLabel="SYM-API-SP-004" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" totalsRowLabel="1. needs to have postman install_x000a_2. needs to have proper defination in the documentation" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" totalsRowLabel="Check removal of a user with an invalid UDID containing a single character" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" totalsRowLabel="1. open the postman_x000a_2. create or open the saved request_x000a_3. define request(method -POST - User Signup)_x000a_4. fill the other required field with valid credentials and goto udid field_x000a_5. send the request with invalid UDID containing a single character_x000a_6. review the response status code." dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" totalsRowLabel="post request should return an error response with status code 400" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" totalsRowLabel="N/A" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1833,7 +1833,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1850,7 +1850,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1956,13 +1956,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
@@ -1998,13 +1998,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>7</v>
@@ -2038,13 +2038,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
@@ -2078,13 +2078,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
@@ -2118,13 +2118,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>7</v>
@@ -2158,13 +2158,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>7</v>
@@ -2198,13 +2198,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>7</v>
@@ -2238,13 +2238,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>7</v>
@@ -2278,13 +2278,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>7</v>
@@ -2318,13 +2318,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>7</v>
@@ -2358,13 +2358,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>7</v>
@@ -2398,13 +2398,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>7</v>
@@ -2438,13 +2438,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>7</v>
@@ -2478,13 +2478,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>7</v>
@@ -2518,13 +2518,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>7</v>
@@ -2558,13 +2558,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>7</v>
@@ -2598,13 +2598,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>7</v>
@@ -2638,13 +2638,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>7</v>
@@ -2678,13 +2678,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>7</v>
@@ -2718,13 +2718,13 @@
         <v>9</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>7</v>
@@ -2758,13 +2758,13 @@
         <v>9</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>7</v>
@@ -2792,19 +2792,19 @@
     </row>
     <row r="25" spans="1:26" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="6"/>
@@ -2830,19 +2830,19 @@
     </row>
     <row r="26" spans="1:26" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="6"/>
@@ -2868,19 +2868,19 @@
     </row>
     <row r="27" spans="1:26" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="6"/>
@@ -2906,19 +2906,19 @@
     </row>
     <row r="28" spans="1:26" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="6"/>
